--- a/grupos/4ARHM - Estadisticos 2020.xlsx
+++ b/grupos/4ARHM - Estadisticos 2020.xlsx
@@ -2494,6 +2494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2950,7 +2951,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3391,6 +3393,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4ARHM - Estadisticos 2020.xlsx
+++ b/grupos/4ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="115">
   <si>
     <t>Materia</t>
   </si>
@@ -185,6 +185,12 @@
     <t>ALDUCIN</t>
   </si>
   <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
@@ -200,30 +206,57 @@
     <t>LORENZO</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
     <t>NAVARRO</t>
   </si>
   <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
     <t>SOLIS</t>
   </si>
   <si>
+    <t>TREJO</t>
+  </si>
+  <si>
     <t>TEHUINTLE</t>
   </si>
   <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
     <t>ZUÑIGA</t>
   </si>
   <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>OLTEHUA</t>
   </si>
   <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
@@ -233,12 +266,24 @@
     <t>ALAMILLO</t>
   </si>
   <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
     <t>ORTIZ</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
     <t>TZANAHUA</t>
   </si>
   <si>
@@ -251,6 +296,12 @@
     <t>YATZIRI NAOMI</t>
   </si>
   <si>
+    <t>HANNIA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ISMERAI</t>
+  </si>
+  <si>
     <t>DAMARIS JABNEL</t>
   </si>
   <si>
@@ -269,100 +320,49 @@
     <t>CLAUDIA</t>
   </si>
   <si>
+    <t>MELISSA MONSERRAT</t>
+  </si>
+  <si>
     <t>DENISSE MERARY</t>
   </si>
   <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>CATHERIN DALAY</t>
+  </si>
+  <si>
+    <t>ALMA EDITH</t>
+  </si>
+  <si>
     <t>ROCIO</t>
   </si>
   <si>
+    <t>KATHE ALONDRA</t>
+  </si>
+  <si>
+    <t>MARLENE ALICIA</t>
+  </si>
+  <si>
     <t>DANIELA</t>
   </si>
   <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
     <t>CRISTINA</t>
   </si>
   <si>
+    <t>RENATA</t>
+  </si>
+  <si>
     <t>JARED JESUS</t>
   </si>
   <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
     <t>ARACELY</t>
-  </si>
-  <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>OLIVARES</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>WILSON</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>HANNIA MONSERRAT</t>
-  </si>
-  <si>
-    <t>ISMERAI</t>
-  </si>
-  <si>
-    <t>MELISSA MONSERRAT</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>CATHERIN DALAY</t>
-  </si>
-  <si>
-    <t>ALMA EDITH</t>
-  </si>
-  <si>
-    <t>KATHE ALONDRA</t>
-  </si>
-  <si>
-    <t>MARLENE ALICIA</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
   </si>
 </sst>
 </file>
@@ -849,10 +849,10 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -908,10 +908,10 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -967,10 +967,10 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -1026,10 +1026,10 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1085,10 +1085,10 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1144,10 +1144,10 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1203,10 +1203,10 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>-1</v>
@@ -1262,10 +1262,10 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1321,10 +1321,10 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -1380,10 +1380,10 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>-1</v>
@@ -1439,10 +1439,10 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1498,10 +1498,10 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1557,10 +1557,10 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1616,10 +1616,10 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1675,10 +1675,10 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -1734,10 +1734,10 @@
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>-1</v>
@@ -1793,10 +1793,10 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -1852,10 +1852,10 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -1911,10 +1911,10 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>-1</v>
@@ -1970,10 +1970,10 @@
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2029,10 +2029,10 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
         <v>-1</v>
@@ -2088,10 +2088,10 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <v>-1</v>
@@ -2147,10 +2147,10 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L26">
         <v>-1</v>
@@ -2206,10 +2206,10 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>-1</v>
@@ -2488,7 +2488,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2526,16 +2526,16 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2546,90 +2546,90 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920128</v>
+        <v>19330051920125</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920129</v>
+        <v>19330051920125</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920130</v>
+        <v>19330051920126</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920380</v>
+        <v>19330051920126</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -2640,116 +2640,116 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920131</v>
+        <v>19330051920126</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920424</v>
+        <v>19330051920126</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920424</v>
+        <v>19330051920127</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920424</v>
+        <v>19330051920127</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920133</v>
+        <v>19330051920127</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920136</v>
+        <v>19330051920127</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2760,156 +2760,156 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920139</v>
+        <v>19330051920128</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920139</v>
+        <v>19330051920128</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920141</v>
+        <v>19330051920128</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920141</v>
+        <v>19330051920128</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920145</v>
+        <v>19330051920129</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920145</v>
+        <v>19330051920129</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920145</v>
+        <v>19330051920129</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920431</v>
+        <v>19330051920129</v>
       </c>
       <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -2920,22 +2920,1522 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
+        <v>19330051920130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>19330051920130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>19330051920130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>19330051920130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>19330051920380</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>19330051920380</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>19330051920380</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>19330051920380</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>19330051920131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>19330051920131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>19330051920131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>19330051920131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>19330051920424</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>19330051920424</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>19330051920424</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>19330051920424</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>19330051920132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>19330051920132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>19330051920132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>19330051920132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>19330051920133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>19330051920133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>19330051920133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>19330051920133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>19330051920134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>19330051920134</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>19330051920134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>19330051920134</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>19330051920135</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>19330051920135</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>19330051920135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>19330051920135</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>19330051920002</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>19330051920002</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>19330051920002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>19330051920002</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>19330051920136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>19330051920136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>19330051920136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>19330051920136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>19330051920137</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>19330051920137</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>19330051920137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>19330051920137</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>19330051920140</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>19330051920140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>19330051920140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>19330051920140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>19330051920139</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>19330051920139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>19330051920139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>19330051920139</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>19330051920143</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19330051920143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19330051920143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19330051920143</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>19330051920141</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19330051920141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>19330051920141</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>19330051920141</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>19330051920144</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>19330051920144</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>19330051920144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>19330051920144</v>
+      </c>
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>19330051920145</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>19330051920145</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>19330051920145</v>
+      </c>
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>19330051920145</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>19330051920147</v>
+      </c>
+      <c r="B90" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" t="s">
+        <v>113</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>19330051920147</v>
+      </c>
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>19330051920147</v>
+      </c>
+      <c r="B92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>19330051920147</v>
+      </c>
+      <c r="B93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" t="s">
+        <v>113</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
         <v>19330051920431</v>
       </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B94" t="s">
         <v>75</v>
       </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
+        <v>114</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>19330051920431</v>
+      </c>
+      <c r="B95" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>19330051920431</v>
+      </c>
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" t="s">
         <v>5</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F96" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>19330051920431</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2977,13 +4477,13 @@
         <v>19330051920424</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2994,13 +4494,13 @@
         <v>19330051920145</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -3014,10 +4514,10 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3028,13 +4528,13 @@
         <v>19330051920139</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -3045,13 +4545,13 @@
         <v>19330051920141</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3062,13 +4562,13 @@
         <v>19330051920431</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3079,13 +4579,13 @@
         <v>19330051920128</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3096,13 +4596,13 @@
         <v>19330051920129</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3113,13 +4613,13 @@
         <v>19330051920130</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3130,13 +4630,13 @@
         <v>19330051920380</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3147,13 +4647,13 @@
         <v>19330051920131</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3164,13 +4664,13 @@
         <v>19330051920133</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3181,13 +4681,13 @@
         <v>19330051920136</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3198,13 +4698,13 @@
         <v>19330051920126</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3215,13 +4715,13 @@
         <v>19330051920127</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3232,13 +4732,13 @@
         <v>19330051920132</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3249,13 +4749,13 @@
         <v>19330051920134</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3266,13 +4766,13 @@
         <v>19330051920135</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3283,13 +4783,13 @@
         <v>19330051920002</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3300,13 +4800,13 @@
         <v>19330051920137</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3317,13 +4817,13 @@
         <v>19330051920140</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3334,13 +4834,13 @@
         <v>19330051920143</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3351,13 +4851,13 @@
         <v>19330051920144</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3368,13 +4868,13 @@
         <v>19330051920147</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3387,7 +4887,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3420,259 +4920,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920380</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920131</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920135</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4ARHM - Estadisticos 2020.xlsx
+++ b/grupos/4ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="115">
   <si>
     <t>Materia</t>
   </si>
@@ -152,22 +152,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
     <t>Rodríguez Román Leticia</t>
   </si>
   <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Avila Coronado Julieta</t>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>Mendoza Velazquez Laura Elena</t>
   </si>
   <si>
     <t>Castro Vasquez Julieta</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Mendoza Velazquez Laura Elena</t>
   </si>
   <si>
     <t>NC</t>
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -902,10 +902,10 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -961,10 +961,10 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1020,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1138,10 +1138,10 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>9</v>
@@ -1182,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1197,10 +1197,10 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -1256,10 +1256,10 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1297,10 +1297,10 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -1315,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1374,10 +1374,10 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>8</v>
@@ -1418,7 +1418,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1433,10 +1433,10 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -1492,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1551,10 +1551,10 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1610,10 +1610,10 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J17">
         <v>10</v>
@@ -1654,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -1669,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1728,10 +1728,10 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>10</v>
@@ -1787,10 +1787,10 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>8</v>
@@ -1831,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1846,10 +1846,10 @@
         <v>6</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -1890,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -1905,10 +1905,10 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -1964,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>10</v>
@@ -2023,10 +2023,10 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -2064,10 +2064,10 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -2082,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2141,10 +2141,10 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -2182,10 +2182,10 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -2200,10 +2200,10 @@
         <v>5</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -2300,30 +2300,27 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>45.83</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.4</v>
+        <v>79.17</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>54.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -2332,30 +2329,27 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>70.83</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>8.33</v>
-      </c>
-      <c r="H3">
-        <v>7.8</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>20.83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -2364,30 +2358,30 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>79.17</v>
+        <v>45.83</v>
       </c>
       <c r="G4">
-        <v>20.83</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -2396,30 +2390,30 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>83.33</v>
+      </c>
+      <c r="G5">
+        <v>16.67</v>
+      </c>
+      <c r="H5">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>87.5</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>12.5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
@@ -2428,19 +2422,19 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2451,7 +2445,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -2460,19 +2454,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>91.67</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2488,7 +2482,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2535,7 +2529,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2555,7 +2549,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2572,30 +2566,30 @@
         <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920125</v>
+        <v>19330051920126</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2612,87 +2606,87 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920126</v>
+        <v>19330051920127</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920126</v>
+        <v>19330051920127</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920126</v>
+        <v>19330051920128</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920127</v>
+        <v>19330051920128</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
@@ -2700,199 +2694,199 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920127</v>
+        <v>19330051920128</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920127</v>
+        <v>19330051920129</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920127</v>
+        <v>19330051920129</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920128</v>
+        <v>19330051920129</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920128</v>
+        <v>19330051920130</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920128</v>
+        <v>19330051920130</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920128</v>
+        <v>19330051920380</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920129</v>
+        <v>19330051920380</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920129</v>
+        <v>19330051920131</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920129</v>
+        <v>19330051920131</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
@@ -2900,59 +2894,59 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920129</v>
+        <v>19330051920424</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920130</v>
+        <v>19330051920424</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920130</v>
+        <v>19330051920424</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -2960,39 +2954,39 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920130</v>
+        <v>19330051920132</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920130</v>
+        <v>19330051920132</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>45</v>
@@ -3000,79 +2994,79 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920380</v>
+        <v>19330051920133</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920380</v>
+        <v>19330051920133</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920380</v>
+        <v>19330051920134</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920380</v>
+        <v>19330051920134</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
         <v>45</v>
@@ -3080,39 +3074,39 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920131</v>
+        <v>19330051920135</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920131</v>
+        <v>19330051920135</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>45</v>
@@ -3120,19 +3114,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920131</v>
+        <v>19330051920002</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -3140,79 +3134,79 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920131</v>
+        <v>19330051920002</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920424</v>
+        <v>19330051920136</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920424</v>
+        <v>19330051920136</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920424</v>
+        <v>19330051920136</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
         <v>46</v>
@@ -3220,19 +3214,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920424</v>
+        <v>19330051920137</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
@@ -3240,39 +3234,39 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920132</v>
+        <v>19330051920137</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920132</v>
+        <v>19330051920140</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
@@ -3280,39 +3274,39 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920132</v>
+        <v>19330051920140</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920132</v>
+        <v>19330051920139</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
         <v>44</v>
@@ -3320,79 +3314,79 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920133</v>
+        <v>19330051920139</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920133</v>
+        <v>19330051920143</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920133</v>
+        <v>19330051920143</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920133</v>
+        <v>19330051920141</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -3400,1042 +3394,202 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920134</v>
+        <v>19330051920141</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920134</v>
+        <v>19330051920144</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920134</v>
+        <v>19330051920144</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920134</v>
+        <v>19330051920145</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920135</v>
+        <v>19330051920145</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920135</v>
+        <v>19330051920145</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920135</v>
+        <v>19330051920147</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920135</v>
+        <v>19330051920147</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920002</v>
+        <v>19330051920431</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920002</v>
+        <v>19330051920431</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920002</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920002</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920136</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920136</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920136</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920136</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920137</v>
-      </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920137</v>
-      </c>
-      <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920137</v>
-      </c>
-      <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920137</v>
-      </c>
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920140</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920140</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920140</v>
-      </c>
-      <c r="B68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920140</v>
-      </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920139</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920139</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920139</v>
-      </c>
-      <c r="B73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920143</v>
-      </c>
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" t="s">
-        <v>109</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920143</v>
-      </c>
-      <c r="B75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920143</v>
-      </c>
-      <c r="B76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920143</v>
-      </c>
-      <c r="B77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920141</v>
-      </c>
-      <c r="B78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920141</v>
-      </c>
-      <c r="B79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920141</v>
-      </c>
-      <c r="B80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920141</v>
-      </c>
-      <c r="B81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" t="s">
-        <v>110</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920144</v>
-      </c>
-      <c r="B82" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920144</v>
-      </c>
-      <c r="B83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920144</v>
-      </c>
-      <c r="B84" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" t="s">
-        <v>59</v>
-      </c>
-      <c r="D84" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920144</v>
-      </c>
-      <c r="B85" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" t="s">
-        <v>59</v>
-      </c>
-      <c r="D85" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920145</v>
-      </c>
-      <c r="B86" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920145</v>
-      </c>
-      <c r="B87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" t="s">
-        <v>112</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920145</v>
-      </c>
-      <c r="B88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" t="s">
-        <v>112</v>
-      </c>
-      <c r="E88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920145</v>
-      </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" t="s">
-        <v>89</v>
-      </c>
-      <c r="D89" t="s">
-        <v>112</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920147</v>
-      </c>
-      <c r="B90" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" t="s">
-        <v>73</v>
-      </c>
-      <c r="D90" t="s">
-        <v>113</v>
-      </c>
-      <c r="E90" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920147</v>
-      </c>
-      <c r="B91" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920147</v>
-      </c>
-      <c r="B92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" t="s">
-        <v>73</v>
-      </c>
-      <c r="D92" t="s">
-        <v>113</v>
-      </c>
-      <c r="E92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920147</v>
-      </c>
-      <c r="B93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" t="s">
-        <v>73</v>
-      </c>
-      <c r="D93" t="s">
-        <v>113</v>
-      </c>
-      <c r="E93" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920431</v>
-      </c>
-      <c r="B94" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" t="s">
-        <v>114</v>
-      </c>
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920431</v>
-      </c>
-      <c r="B95" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920431</v>
-      </c>
-      <c r="B96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" t="s">
-        <v>114</v>
-      </c>
-      <c r="E96" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920431</v>
-      </c>
-      <c r="B97" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" t="s">
-        <v>90</v>
-      </c>
-      <c r="D97" t="s">
-        <v>114</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4474,16 +3628,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920424</v>
+        <v>19330051920125</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4491,16 +3645,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920145</v>
+        <v>19330051920128</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -4508,104 +3662,104 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920125</v>
+        <v>19330051920129</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920139</v>
+        <v>19330051920424</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920141</v>
+        <v>19330051920136</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920431</v>
+        <v>19330051920145</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920128</v>
+        <v>19330051920126</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920129</v>
+        <v>19330051920127</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4622,7 +3776,7 @@
         <v>96</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4639,7 +3793,7 @@
         <v>97</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4656,228 +3810,228 @@
         <v>98</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920133</v>
+        <v>19330051920132</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920136</v>
+        <v>19330051920133</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920126</v>
+        <v>19330051920134</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920127</v>
+        <v>19330051920135</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920132</v>
+        <v>19330051920002</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920134</v>
+        <v>19330051920137</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920135</v>
+        <v>19330051920140</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920002</v>
+        <v>19330051920139</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920137</v>
+        <v>19330051920143</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920140</v>
+        <v>19330051920141</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920143</v>
+        <v>19330051920144</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920144</v>
+        <v>19330051920147</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920147</v>
+        <v>19330051920431</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4887,7 +4041,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4917,7 +4071,513 @@
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920380</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920380</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920144</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ARHM - Estadisticos 2020.xlsx
+++ b/grupos/4ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="115">
   <si>
     <t>Materia</t>
   </si>
@@ -152,15 +152,15 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Rodríguez Román Leticia</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
-    <t>Rodríguez Román Leticia</t>
-  </si>
-  <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
@@ -185,27 +185,87 @@
     <t>ALDUCIN</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ESPINOSA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>YATZIRI NAOMI</t>
+  </si>
+  <si>
+    <t>DAMARIS JABNEL</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>CATHERIN DALAY</t>
+  </si>
+  <si>
+    <t>ROCIO</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>JARED JESUS</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
     <t>BRETON</t>
   </si>
   <si>
     <t>CABRERA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -215,21 +275,12 @@
     <t>OLIVARES</t>
   </si>
   <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
     <t>PARRA</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>RUIZ</t>
   </si>
   <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
     <t>TREJO</t>
   </si>
   <si>
@@ -239,24 +290,15 @@
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
     <t>WILSON</t>
   </si>
   <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
@@ -269,45 +311,21 @@
     <t>MARROQUIN</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>MARCELINO</t>
   </si>
   <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
     <t>TZANAHUA</t>
   </si>
   <si>
-    <t>ESPINOSA</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>YATZIRI NAOMI</t>
-  </si>
-  <si>
     <t>HANNIA MONSERRAT</t>
   </si>
   <si>
     <t>ISMERAI</t>
   </si>
   <si>
-    <t>DAMARIS JABNEL</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
     <t>KAREN</t>
   </si>
   <si>
@@ -317,9 +335,6 @@
     <t>NURIEL</t>
   </si>
   <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
     <t>MELISSA MONSERRAT</t>
   </si>
   <si>
@@ -329,24 +344,15 @@
     <t>ITZEL</t>
   </si>
   <si>
-    <t>CATHERIN DALAY</t>
-  </si>
-  <si>
     <t>ALMA EDITH</t>
   </si>
   <si>
-    <t>ROCIO</t>
-  </si>
-  <si>
     <t>KATHE ALONDRA</t>
   </si>
   <si>
     <t>MARLENE ALICIA</t>
   </si>
   <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
     <t>MARISOL</t>
   </si>
   <si>
@@ -356,13 +362,7 @@
     <t>RENATA</t>
   </si>
   <si>
-    <t>JARED JESUS</t>
-  </si>
-  <si>
     <t>ABRIL</t>
-  </si>
-  <si>
-    <t>ARACELY</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -973,10 +973,10 @@
         <v>10</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1032,10 +1032,10 @@
         <v>9</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1091,10 +1091,10 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1150,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1209,10 +1209,10 @@
         <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1268,10 +1268,10 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1309,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -1327,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1386,10 +1386,10 @@
         <v>8</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1445,10 +1445,10 @@
         <v>8</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1504,10 +1504,10 @@
         <v>9</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1566,7 +1566,7 @@
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1622,10 +1622,10 @@
         <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1681,10 +1681,10 @@
         <v>8</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1740,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1799,10 +1799,10 @@
         <v>6</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -1861,7 +1861,7 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -1899,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1917,10 +1917,10 @@
         <v>5</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -1976,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2035,10 +2035,10 @@
         <v>9</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2076,7 +2076,7 @@
         <v>6</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2097,7 +2097,7 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2153,10 +2153,10 @@
         <v>9</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2215,7 +2215,7 @@
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -2300,27 +2300,30 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>45.83</v>
       </c>
       <c r="G2">
-        <v>79.17</v>
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>6.3</v>
       </c>
       <c r="I2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -2329,27 +2332,30 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="H3">
+        <v>8.699999999999999</v>
       </c>
       <c r="I3">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -2358,25 +2364,25 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>45.83</v>
+        <v>75</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2482,7 +2488,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2520,16 +2526,16 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2540,73 +2546,73 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920125</v>
+        <v>19330051920128</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920126</v>
+        <v>19330051920129</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920126</v>
+        <v>19330051920424</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920127</v>
+        <v>19330051920135</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -2634,19 +2640,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920127</v>
+        <v>19330051920136</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -2654,942 +2660,82 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920128</v>
+        <v>19330051920139</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920128</v>
+        <v>19330051920145</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920128</v>
+        <v>19330051920145</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920129</v>
+        <v>19330051920431</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>19330051920129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>19330051920129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>19330051920130</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920130</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920380</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920380</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920131</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19330051920131</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>19330051920424</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>19330051920424</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>19330051920424</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>19330051920132</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>19330051920132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>19330051920133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>19330051920133</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>19330051920134</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>19330051920134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>19330051920135</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>19330051920135</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>19330051920002</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>19330051920002</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>19330051920136</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>19330051920136</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>19330051920136</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>19330051920137</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>19330051920137</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>19330051920140</v>
-      </c>
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>19330051920140</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>19330051920139</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>19330051920139</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>19330051920143</v>
-      </c>
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>19330051920143</v>
-      </c>
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>19330051920141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19330051920141</v>
-      </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>19330051920144</v>
-      </c>
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920144</v>
-      </c>
-      <c r="B48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920145</v>
-      </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920145</v>
-      </c>
-      <c r="B51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920147</v>
-      </c>
-      <c r="B52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920147</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920431</v>
-      </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920431</v>
-      </c>
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3634,404 +2780,404 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920128</v>
+        <v>19330051920145</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920129</v>
+        <v>19330051920128</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920424</v>
+        <v>19330051920129</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920136</v>
+        <v>19330051920424</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920145</v>
+        <v>19330051920135</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920126</v>
+        <v>19330051920136</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920127</v>
+        <v>19330051920139</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920130</v>
+        <v>19330051920431</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920380</v>
+        <v>19330051920126</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920131</v>
+        <v>19330051920127</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920132</v>
+        <v>19330051920130</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920133</v>
+        <v>19330051920380</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920134</v>
+        <v>19330051920131</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920135</v>
+        <v>19330051920132</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920002</v>
+        <v>19330051920133</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920137</v>
+        <v>19330051920134</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920140</v>
+        <v>19330051920002</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920139</v>
+        <v>19330051920137</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920143</v>
+        <v>19330051920140</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920141</v>
+        <v>19330051920143</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920144</v>
+        <v>19330051920141</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920147</v>
+        <v>19330051920144</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
         <v>113</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920431</v>
+        <v>19330051920147</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>114</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +3187,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4076,19 +3222,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920126</v>
+        <v>19330051920129</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -4099,111 +3245,111 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920126</v>
+        <v>19330051920129</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920127</v>
+        <v>19330051920130</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920127</v>
+        <v>19330051920130</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920380</v>
+        <v>19330051920135</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920380</v>
+        <v>19330051920135</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -4214,19 +3360,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920132</v>
+        <v>19330051920128</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -4237,68 +3383,68 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920132</v>
+        <v>19330051920131</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920134</v>
+        <v>19330051920133</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920134</v>
+        <v>19330051920136</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -4306,278 +3452,25 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920002</v>
+        <v>19330051920140</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920002</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920140</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920140</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920143</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920143</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920144</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920144</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920147</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920147</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ARHM - Estadisticos 2020.xlsx
+++ b/grupos/4ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="115">
   <si>
     <t>Materia</t>
   </si>
@@ -191,160 +191,160 @@
     <t>HERRERA</t>
   </si>
   <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ESPINOSA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>YATZIRI NAOMI</t>
+  </si>
+  <si>
+    <t>DAMARIS JABNEL</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>CATHERIN DALAY</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>JARED JESUS</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>LORENZO</t>
   </si>
   <si>
-    <t>PALACIOS</t>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>PARRA</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>ESPINOSA</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>YATZIRI NAOMI</t>
-  </si>
-  <si>
-    <t>DAMARIS JABNEL</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>HANNIA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ISMERAI</t>
+  </si>
+  <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>FERNANDA CAMILA</t>
+  </si>
+  <si>
+    <t>NURIEL</t>
   </si>
   <si>
     <t>CLAUDIA</t>
   </si>
   <si>
-    <t>CATHERIN DALAY</t>
+    <t>MELISSA MONSERRAT</t>
+  </si>
+  <si>
+    <t>DENISSE MERARY</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>ALMA EDITH</t>
   </si>
   <si>
     <t>ROCIO</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>JARED JESUS</t>
-  </si>
-  <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>OLIVARES</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>TEHUINTLE</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>WILSON</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>HANNIA MONSERRAT</t>
-  </si>
-  <si>
-    <t>ISMERAI</t>
-  </si>
-  <si>
-    <t>KAREN</t>
-  </si>
-  <si>
-    <t>FERNANDA CAMILA</t>
-  </si>
-  <si>
-    <t>NURIEL</t>
-  </si>
-  <si>
-    <t>MELISSA MONSERRAT</t>
-  </si>
-  <si>
-    <t>DENISSE MERARY</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>ALMA EDITH</t>
   </si>
   <si>
     <t>KATHE ALONDRA</t>
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -1005,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1318,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -2085,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -2300,25 +2300,25 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>45.83</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
       <c r="H2">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2488,7 +2488,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2529,7 +2529,7 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2540,16 +2540,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920125</v>
+        <v>19330051920128</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -2560,16 +2560,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920128</v>
+        <v>19330051920129</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -2580,56 +2580,56 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920129</v>
+        <v>19330051920135</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920424</v>
+        <v>19330051920139</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920135</v>
+        <v>19330051920145</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -2640,101 +2640,21 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920136</v>
+        <v>19330051920431</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920139</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920145</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19330051920145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>19330051920431</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2783,41 +2703,41 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920145</v>
+        <v>19330051920128</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920128</v>
+        <v>19330051920129</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2825,16 +2745,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920129</v>
+        <v>19330051920135</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2842,16 +2762,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920424</v>
+        <v>19330051920139</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2859,16 +2779,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920135</v>
+        <v>19330051920145</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2876,16 +2796,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920136</v>
+        <v>19330051920431</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2893,47 +2813,47 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920139</v>
+        <v>19330051920126</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920431</v>
+        <v>19330051920127</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920126</v>
+        <v>19330051920130</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
@@ -2944,13 +2864,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920127</v>
+        <v>19330051920380</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>101</v>
@@ -2961,13 +2881,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920130</v>
+        <v>19330051920131</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
@@ -2978,13 +2898,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920380</v>
+        <v>19330051920424</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
         <v>103</v>
@@ -2995,13 +2915,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920131</v>
+        <v>19330051920132</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
@@ -3012,13 +2932,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920132</v>
+        <v>19330051920133</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -3029,13 +2949,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920133</v>
+        <v>19330051920134</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -3046,13 +2966,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920134</v>
+        <v>19330051920002</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>107</v>
@@ -3063,13 +2983,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920002</v>
+        <v>19330051920136</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>108</v>
@@ -3083,10 +3003,10 @@
         <v>19330051920137</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>109</v>
@@ -3100,10 +3020,10 @@
         <v>19330051920140</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
         <v>110</v>
@@ -3117,10 +3037,10 @@
         <v>19330051920143</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
         <v>111</v>
@@ -3134,10 +3054,10 @@
         <v>19330051920141</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
         <v>112</v>
@@ -3151,10 +3071,10 @@
         <v>19330051920144</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>113</v>
@@ -3168,10 +3088,10 @@
         <v>19330051920147</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>114</v>
@@ -3228,10 +3148,10 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -3251,10 +3171,10 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -3271,13 +3191,13 @@
         <v>19330051920130</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -3294,13 +3214,13 @@
         <v>19330051920130</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -3317,13 +3237,13 @@
         <v>19330051920135</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -3340,13 +3260,13 @@
         <v>19330051920135</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -3366,10 +3286,10 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -3386,13 +3306,13 @@
         <v>19330051920131</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -3409,13 +3329,13 @@
         <v>19330051920133</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -3432,13 +3352,13 @@
         <v>19330051920136</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -3447,7 +3367,7 @@
         <v>44</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3455,10 +3375,10 @@
         <v>19330051920140</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>

--- a/grupos/4ARHM - Estadisticos 2020.xlsx
+++ b/grupos/4ARHM - Estadisticos 2020.xlsx
@@ -1268,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -2344,7 +2344,7 @@
         <v>16.67</v>
       </c>
       <c r="H3">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="I3">
         <v>5</v>
